--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a1-Ddr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H2">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J2">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N2">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O2">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P2">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q2">
-        <v>3.216915557848667</v>
+        <v>4.462934185793999</v>
       </c>
       <c r="R2">
-        <v>28.952240020638</v>
+        <v>40.166407672146</v>
       </c>
       <c r="S2">
-        <v>2.688571383492511E-05</v>
+        <v>3.88885103482724E-05</v>
       </c>
       <c r="T2">
-        <v>2.688571383492511E-05</v>
+        <v>3.88885103482724E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H3">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J3">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.670859</v>
       </c>
       <c r="O3">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P3">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q3">
-        <v>17.21685961394789</v>
+        <v>50.68444719592256</v>
       </c>
       <c r="R3">
-        <v>154.951736525531</v>
+        <v>456.160024763303</v>
       </c>
       <c r="S3">
-        <v>0.0001438917349220821</v>
+        <v>0.0004416472587808131</v>
       </c>
       <c r="T3">
-        <v>0.0001438917349220821</v>
+        <v>0.0004416472587808132</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H4">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J4">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N4">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O4">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P4">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q4">
-        <v>162.9824429915599</v>
+        <v>459.4252085812652</v>
       </c>
       <c r="R4">
-        <v>1466.841986924039</v>
+        <v>4134.826877231386</v>
       </c>
       <c r="S4">
-        <v>0.001362143097507507</v>
+        <v>0.004003277044738927</v>
       </c>
       <c r="T4">
-        <v>0.001362143097507508</v>
+        <v>0.004003277044738927</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.108069666666667</v>
+        <v>26.81310566666667</v>
       </c>
       <c r="H5">
-        <v>27.324209</v>
+        <v>80.439317</v>
       </c>
       <c r="I5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="J5">
-        <v>0.00155006418458712</v>
+        <v>0.004518206005002021</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N5">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O5">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P5">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q5">
-        <v>2.051261765885444</v>
+        <v>3.947041095065445</v>
       </c>
       <c r="R5">
-        <v>18.461355892969</v>
+        <v>35.523369855589</v>
       </c>
       <c r="S5">
-        <v>1.714363832260517E-05</v>
+        <v>3.439319113400745E-05</v>
       </c>
       <c r="T5">
-        <v>1.714363832260518E-05</v>
+        <v>3.439319113400746E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H6">
         <v>17315.620606</v>
       </c>
       <c r="I6">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J6">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N6">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O6">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P6">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q6">
-        <v>2038.591101438521</v>
+        <v>960.7052624620919</v>
       </c>
       <c r="R6">
-        <v>18347.31991294669</v>
+        <v>8646.347362158827</v>
       </c>
       <c r="S6">
-        <v>0.01703774189719631</v>
+        <v>0.008371263161311895</v>
       </c>
       <c r="T6">
-        <v>0.01703774189719631</v>
+        <v>0.008371263161311898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H7">
         <v>17315.620606</v>
       </c>
       <c r="I7">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J7">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>5.670859</v>
       </c>
       <c r="O7">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P7">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q7">
         <v>10910.49366156895</v>
       </c>
       <c r="R7">
-        <v>98194.44295412053</v>
+        <v>98194.44295412056</v>
       </c>
       <c r="S7">
-        <v>0.09118561090825698</v>
+        <v>0.09507037926153029</v>
       </c>
       <c r="T7">
-        <v>0.091185610908257</v>
+        <v>0.09507037926153032</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H8">
         <v>17315.620606</v>
       </c>
       <c r="I8">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J8">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N8">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O8">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P8">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q8">
-        <v>103283.5808085377</v>
+        <v>98897.31670180146</v>
       </c>
       <c r="R8">
-        <v>929552.2272768395</v>
+        <v>890075.8503162132</v>
       </c>
       <c r="S8">
-        <v>0.8632035089294501</v>
+        <v>0.8617580192458391</v>
       </c>
       <c r="T8">
-        <v>0.8632035089294501</v>
+        <v>0.8617580192458392</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5771.873535333332</v>
+        <v>5771.873535333333</v>
       </c>
       <c r="H9">
         <v>17315.620606</v>
       </c>
       <c r="I9">
-        <v>0.9822909543423312</v>
+        <v>0.9726032482643521</v>
       </c>
       <c r="J9">
-        <v>0.9822909543423313</v>
+        <v>0.9726032482643523</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N9">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O9">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P9">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q9">
-        <v>1299.904802428716</v>
+        <v>849.6524916844336</v>
       </c>
       <c r="R9">
-        <v>11699.14322185844</v>
+        <v>7646.872425159902</v>
       </c>
       <c r="S9">
-        <v>0.01086409260742784</v>
+        <v>0.007403586595670819</v>
       </c>
       <c r="T9">
-        <v>0.01086409260742785</v>
+        <v>0.007403586595670822</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H10">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J10">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N10">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O10">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P10">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q10">
-        <v>33.08616316785</v>
+        <v>22.045069521132</v>
       </c>
       <c r="R10">
-        <v>297.77546851065</v>
+        <v>198.405625690188</v>
       </c>
       <c r="S10">
-        <v>0.000276521126784361</v>
+        <v>0.0001920933355750134</v>
       </c>
       <c r="T10">
-        <v>0.000276521126784361</v>
+        <v>0.0001920933355750134</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H11">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J11">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.670859</v>
       </c>
       <c r="O11">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P11">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q11">
-        <v>177.076400104825</v>
+        <v>250.3604390203371</v>
       </c>
       <c r="R11">
-        <v>1593.687600943425</v>
+        <v>2253.243951183034</v>
       </c>
       <c r="S11">
-        <v>0.0014799348427165</v>
+        <v>0.002181556823004828</v>
       </c>
       <c r="T11">
-        <v>0.0014799348427165</v>
+        <v>0.002181556823004829</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H12">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J12">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N12">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O12">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P12">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q12">
-        <v>1676.283882912925</v>
+        <v>2269.372623771435</v>
       </c>
       <c r="R12">
-        <v>15086.55494621632</v>
+        <v>20424.35361394291</v>
       </c>
       <c r="S12">
-        <v>0.01400972079361436</v>
+        <v>0.0197745512458012</v>
       </c>
       <c r="T12">
-        <v>0.01400972079361436</v>
+        <v>0.0197745512458012</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>93.677025</v>
+        <v>132.4457753333333</v>
       </c>
       <c r="H13">
-        <v>281.031075</v>
+        <v>397.337326</v>
       </c>
       <c r="I13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163987</v>
       </c>
       <c r="J13">
-        <v>0.01594250007799006</v>
+        <v>0.02231808970163988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N13">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O13">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P13">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q13">
-        <v>21.097346282675</v>
+        <v>19.49676865512689</v>
       </c>
       <c r="R13">
-        <v>189.876116544075</v>
+        <v>175.470917896142</v>
       </c>
       <c r="S13">
-        <v>0.0001763233148748397</v>
+        <v>0.0001698882972588321</v>
       </c>
       <c r="T13">
-        <v>0.0001763233148748397</v>
+        <v>0.0001698882972588321</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H14">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I14">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J14">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.353194</v>
+        <v>0.166446</v>
       </c>
       <c r="N14">
-        <v>1.059582</v>
+        <v>0.4993379999999999</v>
       </c>
       <c r="O14">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887148</v>
       </c>
       <c r="P14">
-        <v>0.01734490358674178</v>
+        <v>0.008607068890887149</v>
       </c>
       <c r="Q14">
-        <v>0.4492732460886666</v>
+        <v>0.5535998953379999</v>
       </c>
       <c r="R14">
-        <v>4.043459214798</v>
+        <v>4.982399058042</v>
       </c>
       <c r="S14">
-        <v>3.754848926188697E-06</v>
+        <v>4.823883651966551E-06</v>
       </c>
       <c r="T14">
-        <v>3.754848926188697E-06</v>
+        <v>4.823883651966552E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H15">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I15">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J15">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.670859</v>
       </c>
       <c r="O15">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492934</v>
       </c>
       <c r="P15">
-        <v>0.09282953335278149</v>
+        <v>0.09774836700492935</v>
       </c>
       <c r="Q15">
-        <v>2.404500294494555</v>
+        <v>6.287098015525666</v>
       </c>
       <c r="R15">
-        <v>21.640502650451</v>
+        <v>56.583882139731</v>
       </c>
       <c r="S15">
-        <v>2.009586688592058E-05</v>
+        <v>5.47836616133909E-05</v>
       </c>
       <c r="T15">
-        <v>2.009586688592059E-05</v>
+        <v>5.478366161339091E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H16">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I16">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J16">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.89429033333333</v>
+        <v>17.13435266666667</v>
       </c>
       <c r="N16">
-        <v>53.68287099999999</v>
+        <v>51.403058</v>
       </c>
       <c r="O16">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="P16">
-        <v>0.8787656092256156</v>
+        <v>0.8860324297535294</v>
       </c>
       <c r="Q16">
-        <v>22.76206816794655</v>
+        <v>56.98890837239134</v>
       </c>
       <c r="R16">
-        <v>204.858613511519</v>
+        <v>512.900175351522</v>
       </c>
       <c r="S16">
-        <v>0.000190236405043759</v>
+        <v>0.0004965822171500837</v>
       </c>
       <c r="T16">
-        <v>0.0001902364050437591</v>
+        <v>0.0004965822171500838</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.272029666666667</v>
+        <v>3.326003</v>
       </c>
       <c r="H17">
-        <v>3.816089</v>
+        <v>9.978009</v>
       </c>
       <c r="I17">
-        <v>0.0002164813950916887</v>
+        <v>0.0005604560290058679</v>
       </c>
       <c r="J17">
-        <v>0.0002164813950916888</v>
+        <v>0.000560456029005868</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2252136666666666</v>
+        <v>0.1472056666666667</v>
       </c>
       <c r="N17">
-        <v>0.6756409999999999</v>
+        <v>0.441617</v>
       </c>
       <c r="O17">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654087</v>
       </c>
       <c r="P17">
-        <v>0.01105995383486111</v>
+        <v>0.007612134350654088</v>
       </c>
       <c r="Q17">
-        <v>0.2864784653387777</v>
+        <v>0.4896064889503334</v>
       </c>
       <c r="R17">
-        <v>2.578306188048999</v>
+        <v>4.406458400553</v>
       </c>
       <c r="S17">
-        <v>2.394274235820406E-06</v>
+        <v>4.26626659042675E-06</v>
       </c>
       <c r="T17">
-        <v>2.394274235820406E-06</v>
+        <v>4.266266590426752E-06</v>
       </c>
     </row>
   </sheetData>
